--- a/experiments/20201106_exp13_gfp_spike/20200611_gfp_spike_plan_2.xlsx
+++ b/experiments/20201106_exp13_gfp_spike/20200611_gfp_spike_plan_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitaroychoudhury/Documents/MURRAY/ug_murray/experiments/20201106_exp13_gfp_spike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B38044-3620-4C4A-849E-C599FF9D4884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36502D86-730E-4B48-B4CF-87E590EB60C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="700" windowWidth="26840" windowHeight="15540" xr2:uid="{02CFAA0A-116C-B64F-93F4-5903E57C8D51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{02CFAA0A-116C-B64F-93F4-5903E57C8D51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1535,8 +1535,8 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
